--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value28.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value28.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.10552699697105</v>
+        <v>3.847989797592163</v>
       </c>
       <c r="B1">
-        <v>1.162783552529044</v>
+        <v>2.95006275177002</v>
       </c>
       <c r="C1">
-        <v>1.150540981224355</v>
+        <v>2.742895364761353</v>
       </c>
       <c r="D1">
-        <v>1.398442943355903</v>
+        <v>3.614030122756958</v>
       </c>
       <c r="E1">
-        <v>2.015787788933797</v>
+        <v>5.338459968566895</v>
       </c>
     </row>
   </sheetData>
